--- a/Data/TestData.xlsx
+++ b/Data/TestData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28080" windowHeight="13050"/>
+    <workbookView windowWidth="28695" windowHeight="13050"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,91 +18,91 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105">
   <si>
-    <t>id</t>
-  </si>
-  <si>
-    <t>testBoolean</t>
-  </si>
-  <si>
-    <t>testByte</t>
-  </si>
-  <si>
-    <t>testSByte</t>
-  </si>
-  <si>
-    <t>testShort</t>
-  </si>
-  <si>
-    <t>testUShort</t>
-  </si>
-  <si>
-    <t>testInt</t>
-  </si>
-  <si>
-    <t>testUInt</t>
-  </si>
-  <si>
-    <t>testULong</t>
-  </si>
-  <si>
-    <t>testFloat</t>
-  </si>
-  <si>
-    <t>testDouble</t>
-  </si>
-  <si>
-    <t>testDecimal</t>
-  </si>
-  <si>
-    <t>testString</t>
-  </si>
-  <si>
-    <t>testVector2</t>
-  </si>
-  <si>
-    <t>testVector3</t>
-  </si>
-  <si>
-    <t>testQuaternion</t>
-  </si>
-  <si>
-    <t>testBooleanArray</t>
-  </si>
-  <si>
-    <t>testByteArray</t>
-  </si>
-  <si>
-    <t>testSByteArray</t>
-  </si>
-  <si>
-    <t>testShortArray</t>
-  </si>
-  <si>
-    <t>testUShortArray</t>
-  </si>
-  <si>
-    <t>testIntArray</t>
-  </si>
-  <si>
-    <t>testUIntArray</t>
-  </si>
-  <si>
-    <t>testLongArray</t>
-  </si>
-  <si>
-    <t>testULongArray</t>
-  </si>
-  <si>
-    <t>testFloatArray</t>
-  </si>
-  <si>
-    <t>testDoubleArray</t>
-  </si>
-  <si>
-    <t>testDecimalArray</t>
-  </si>
-  <si>
-    <t>testStringArray</t>
+    <t>Id</t>
+  </si>
+  <si>
+    <t>TestBoolean</t>
+  </si>
+  <si>
+    <t>TestByte</t>
+  </si>
+  <si>
+    <t>TestSByte</t>
+  </si>
+  <si>
+    <t>TestShort</t>
+  </si>
+  <si>
+    <t>TestUShort</t>
+  </si>
+  <si>
+    <t>TestInt</t>
+  </si>
+  <si>
+    <t>TestUInt</t>
+  </si>
+  <si>
+    <t>TestULong</t>
+  </si>
+  <si>
+    <t>TestFloat</t>
+  </si>
+  <si>
+    <t>TestDouble</t>
+  </si>
+  <si>
+    <t>TestDecimal</t>
+  </si>
+  <si>
+    <t>TestString</t>
+  </si>
+  <si>
+    <t>TestVector2</t>
+  </si>
+  <si>
+    <t>TestVector3</t>
+  </si>
+  <si>
+    <t>TestQuaternion</t>
+  </si>
+  <si>
+    <t>TestBooleanArray</t>
+  </si>
+  <si>
+    <t>TestByteArray</t>
+  </si>
+  <si>
+    <t>TestSByteArray</t>
+  </si>
+  <si>
+    <t>TestShortArray</t>
+  </si>
+  <si>
+    <t>TestUShortArray</t>
+  </si>
+  <si>
+    <t>TestIntArray</t>
+  </si>
+  <si>
+    <t>TestUIntArray</t>
+  </si>
+  <si>
+    <t>TestLongArray</t>
+  </si>
+  <si>
+    <t>TestULongArray</t>
+  </si>
+  <si>
+    <t>TestFloatArray</t>
+  </si>
+  <si>
+    <t>TestDoubleArray</t>
+  </si>
+  <si>
+    <t>TestDecimalArray</t>
+  </si>
+  <si>
+    <t>TestStringArray</t>
   </si>
   <si>
     <t>long</t>
@@ -362,11 +362,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="7" formatCode="&quot;￥&quot;#,##0.00;&quot;￥&quot;\-#,##0.00"/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="7" formatCode="&quot;￥&quot;#,##0.00;&quot;￥&quot;\-#,##0.00"/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -388,6 +388,21 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -395,7 +410,91 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -417,21 +516,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -439,24 +524,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -468,76 +538,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="12"/>
       <name val="BatangChe"/>
       <charset val="134"/>
@@ -552,49 +552,151 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -606,36 +708,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -649,78 +721,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -746,21 +746,25 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -796,26 +800,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -843,6 +834,15 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -851,145 +851,145 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="32" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="32" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1074,6 +1074,11 @@
     <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -1409,9 +1414,9 @@
   <dimension ref="A1:AC6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="I1" activePane="topRight" state="frozen"/>
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="Q2" sqref="Q2"/>
+      <selection pane="topRight" activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.625" defaultRowHeight="20" customHeight="1" outlineLevelRow="5"/>
